--- a/Default.xlsx
+++ b/Default.xlsx
@@ -229,10 +229,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -537,15 +537,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="2" width="9.41796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.41796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.9765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.46484375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.046875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customFormat="1">
+    <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -569,13 +571,13 @@
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
-        <v>45076</v>
+      <c r="C2" s="3">
+        <v>45291</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>2</v>
       </c>
     </row>
@@ -616,7 +618,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -635,7 +637,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Default.xlsx
+++ b/Default.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
